--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gpha2</t>
+  </si>
+  <si>
+    <t>Tshr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Gpha2</t>
-  </si>
-  <si>
-    <t>Tshr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1784143333333333</v>
+        <v>0.5915726666666666</v>
       </c>
       <c r="H2">
-        <v>0.535243</v>
+        <v>1.774718</v>
       </c>
       <c r="I2">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="J2">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>0.1286340581183333</v>
+        <v>0.328377649067111</v>
       </c>
       <c r="R2">
-        <v>1.157706523065</v>
+        <v>2.955398841604</v>
       </c>
       <c r="S2">
-        <v>0.03552881453598603</v>
+        <v>0.1154745224147634</v>
       </c>
       <c r="T2">
-        <v>0.03552881453598603</v>
+        <v>0.1154745224147634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1784143333333333</v>
+        <v>0.5915726666666666</v>
       </c>
       <c r="H3">
-        <v>0.535243</v>
+        <v>1.774718</v>
       </c>
       <c r="I3">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="J3">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>0.6043435254858889</v>
+        <v>2.003836262899778</v>
       </c>
       <c r="R3">
-        <v>5.439091729373001</v>
+        <v>18.034526366098</v>
       </c>
       <c r="S3">
-        <v>0.1669200936913604</v>
+        <v>0.7046522079474604</v>
       </c>
       <c r="T3">
-        <v>0.1669200936913604</v>
+        <v>0.7046522079474603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1784143333333333</v>
+        <v>0.5915726666666666</v>
       </c>
       <c r="H4">
-        <v>0.535243</v>
+        <v>1.774718</v>
       </c>
       <c r="I4">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="J4">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>0.08511463921722223</v>
+        <v>0.3142307803164444</v>
       </c>
       <c r="R4">
-        <v>0.7660317529550001</v>
+        <v>2.828077022848</v>
       </c>
       <c r="S4">
-        <v>0.02350872137038689</v>
+        <v>0.1104997535250766</v>
       </c>
       <c r="T4">
-        <v>0.02350872137038689</v>
+        <v>0.1104997535250765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1784143333333333</v>
+        <v>0.5915726666666666</v>
       </c>
       <c r="H5">
-        <v>0.535243</v>
+        <v>1.774718</v>
       </c>
       <c r="I5">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="J5">
-        <v>0.2317108384080944</v>
+        <v>0.95514980205075</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>0.02082981394522223</v>
+        <v>0.06973754381</v>
       </c>
       <c r="R5">
-        <v>0.187468325507</v>
+        <v>0.6276378942900001</v>
       </c>
       <c r="S5">
-        <v>0.005753208810361091</v>
+        <v>0.02452331816344968</v>
       </c>
       <c r="T5">
-        <v>0.005753208810361091</v>
+        <v>0.02452331816344968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5915726666666666</v>
+        <v>0.027778</v>
       </c>
       <c r="H6">
-        <v>1.774718</v>
+        <v>0.08333400000000001</v>
       </c>
       <c r="I6">
-        <v>0.7682891615919056</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="J6">
-        <v>0.7682891615919057</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>0.4265150190766666</v>
+        <v>0.01541936409466666</v>
       </c>
       <c r="R6">
-        <v>3.83863517169</v>
+        <v>0.138774276852</v>
       </c>
       <c r="S6">
-        <v>0.1178037390039217</v>
+        <v>0.005422243900671484</v>
       </c>
       <c r="T6">
-        <v>0.1178037390039217</v>
+        <v>0.005422243900671482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5915726666666666</v>
+        <v>0.027778</v>
       </c>
       <c r="H7">
-        <v>1.774718</v>
+        <v>0.08333400000000001</v>
       </c>
       <c r="I7">
-        <v>0.7682891615919056</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="J7">
-        <v>0.7682891615919057</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
-        <v>2.003836262899778</v>
+        <v>0.09409252125266666</v>
       </c>
       <c r="R7">
-        <v>18.034526366098</v>
+        <v>0.8468326912740001</v>
       </c>
       <c r="S7">
-        <v>0.5534609417325282</v>
+        <v>0.03308778470556656</v>
       </c>
       <c r="T7">
-        <v>0.5534609417325284</v>
+        <v>0.03308778470556655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5915726666666666</v>
+        <v>0.027778</v>
       </c>
       <c r="H8">
-        <v>1.774718</v>
+        <v>0.08333400000000001</v>
       </c>
       <c r="I8">
-        <v>0.7682891615919056</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="J8">
-        <v>0.7682891615919057</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>0.2822166423144444</v>
+        <v>0.01475508100266667</v>
       </c>
       <c r="R8">
-        <v>2.53994978083</v>
+        <v>0.132795729024</v>
       </c>
       <c r="S8">
-        <v>0.07794842898087462</v>
+        <v>0.005188647695159868</v>
       </c>
       <c r="T8">
-        <v>0.07794842898087463</v>
+        <v>0.005188647695159867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5915726666666666</v>
+        <v>0.027778</v>
       </c>
       <c r="H9">
-        <v>1.774718</v>
+        <v>0.08333400000000001</v>
       </c>
       <c r="I9">
-        <v>0.7682891615919056</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="J9">
-        <v>0.7682891615919057</v>
+        <v>0.04485019794925008</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>0.06906591164244445</v>
+        <v>0.00327460953</v>
       </c>
       <c r="R9">
-        <v>0.6215932047820001</v>
+        <v>0.02947148577</v>
       </c>
       <c r="S9">
-        <v>0.0190760518745811</v>
+        <v>0.001151521647852175</v>
       </c>
       <c r="T9">
-        <v>0.01907605187458111</v>
+        <v>0.001151521647852174</v>
       </c>
     </row>
   </sheetData>
